--- a/2017/dados_questionario.xlsx
+++ b/2017/dados_questionario.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="219">
   <si>
     <t>aluno</t>
   </si>
@@ -119,9 +119,6 @@
     <t>regular</t>
   </si>
   <si>
-    <t>nenhum</t>
-  </si>
-  <si>
     <t>Jane Austen</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>Meia-noite em Paris</t>
   </si>
   <si>
-    <t>astrofísica</t>
-  </si>
-  <si>
     <t>basquete</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
     <t>Moby Dick</t>
   </si>
   <si>
-    <t>Tem years gone</t>
-  </si>
-  <si>
     <t>Lars Von Trier</t>
   </si>
   <si>
@@ -429,6 +420,267 @@
   </si>
   <si>
     <t>Black</t>
+  </si>
+  <si>
+    <t>politicas publicas</t>
+  </si>
+  <si>
+    <t>Chimamanda Ngozi Adichie</t>
+  </si>
+  <si>
+    <t>Amerikanah</t>
+  </si>
+  <si>
+    <t>brasileira</t>
+  </si>
+  <si>
+    <t>Maria Maria</t>
+  </si>
+  <si>
+    <t>fisioterapia</t>
+  </si>
+  <si>
+    <t>ZN</t>
+  </si>
+  <si>
+    <t>José Saramago</t>
+  </si>
+  <si>
+    <t>científicos</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Osasco</t>
+  </si>
+  <si>
+    <t>yoga</t>
+  </si>
+  <si>
+    <t>pop rock</t>
+  </si>
+  <si>
+    <t>Best of You</t>
+  </si>
+  <si>
+    <t>Augusto Cury</t>
+  </si>
+  <si>
+    <t>O poder do hábito</t>
+  </si>
+  <si>
+    <t>O vendedor de Sonhos</t>
+  </si>
+  <si>
+    <t>bicicleta</t>
+  </si>
+  <si>
+    <t>Maria Vargas Llosa</t>
+  </si>
+  <si>
+    <t>O sonho do celta</t>
+  </si>
+  <si>
+    <t>samba</t>
+  </si>
+  <si>
+    <t>Pressentimento</t>
+  </si>
+  <si>
+    <t>Sérgio Leone</t>
+  </si>
+  <si>
+    <t>Forest Gump</t>
+  </si>
+  <si>
+    <t>letras</t>
+  </si>
+  <si>
+    <t>Sun Tsu</t>
+  </si>
+  <si>
+    <t>Ferraz de Vasconcelos</t>
+  </si>
+  <si>
+    <t>voleibol</t>
+  </si>
+  <si>
+    <t>Graciliano Ramos</t>
+  </si>
+  <si>
+    <t>À espera de um milagre</t>
+  </si>
+  <si>
+    <t>O grande projeto</t>
+  </si>
+  <si>
+    <t>Steven Spilberg</t>
+  </si>
+  <si>
+    <t>Doug Lemov</t>
+  </si>
+  <si>
+    <t>Aula nota 10</t>
+  </si>
+  <si>
+    <t>romantica</t>
+  </si>
+  <si>
+    <t>George Lucas</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Jorge Boran</t>
+  </si>
+  <si>
+    <t>O futuro tem nome: juventude</t>
+  </si>
+  <si>
+    <t>pagode</t>
+  </si>
+  <si>
+    <t>A vida de David Gale</t>
+  </si>
+  <si>
+    <t>pilates</t>
+  </si>
+  <si>
+    <t>Guimarães Rosa</t>
+  </si>
+  <si>
+    <t>Gabriel Garcia Marquez</t>
+  </si>
+  <si>
+    <t>George R. R. Martin</t>
+  </si>
+  <si>
+    <t>O Poderoso Chefão</t>
+  </si>
+  <si>
+    <t>danca</t>
+  </si>
+  <si>
+    <t>Roberto Lent</t>
+  </si>
+  <si>
+    <t>Cem bilhões de neurônios</t>
+  </si>
+  <si>
+    <t>Minha mãe é uma peça</t>
+  </si>
+  <si>
+    <t>Lygia Fagundes Teles</t>
+  </si>
+  <si>
+    <t>Venha ver o pôr do sol</t>
+  </si>
+  <si>
+    <t>Black Swan</t>
+  </si>
+  <si>
+    <t>Franco da Rocha</t>
+  </si>
+  <si>
+    <t>Franz Kafka</t>
+  </si>
+  <si>
+    <t>Metamorfose</t>
+  </si>
+  <si>
+    <t>All the small things</t>
+  </si>
+  <si>
+    <t>O Regresso</t>
+  </si>
+  <si>
+    <t>funcional</t>
+  </si>
+  <si>
+    <t>Carlos Drummond de Andrade</t>
+  </si>
+  <si>
+    <t>engenharia</t>
+  </si>
+  <si>
+    <t>linguistica</t>
+  </si>
+  <si>
+    <t>fisica</t>
+  </si>
+  <si>
+    <t>nerociencias</t>
+  </si>
+  <si>
+    <t>bioquimica</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Biológicas</t>
+  </si>
+  <si>
+    <t>Exatas</t>
+  </si>
+  <si>
+    <t>Humanas</t>
+  </si>
+  <si>
+    <t>geologia</t>
+  </si>
+  <si>
+    <t>astrofisica</t>
+  </si>
+  <si>
+    <t>A vida passada a limpo</t>
+  </si>
+  <si>
+    <t>New york, New york</t>
+  </si>
+  <si>
+    <t>Amadeus</t>
+  </si>
+  <si>
+    <t>Ten years gone</t>
+  </si>
+  <si>
+    <t>Tocando em frente</t>
+  </si>
+  <si>
+    <t>Certas coisas</t>
+  </si>
+  <si>
+    <t>Amor verdadeiro</t>
+  </si>
+  <si>
+    <t>Almodóvar</t>
+  </si>
+  <si>
+    <t>Arte da fuerra</t>
+  </si>
+  <si>
+    <t>Vidas secas</t>
+  </si>
+  <si>
+    <t>Primeiras estórias</t>
+  </si>
+  <si>
+    <t>Admirável mundo novo</t>
+  </si>
+  <si>
+    <t>calistenia</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
   </si>
 </sst>
 </file>
@@ -445,7 +697,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -473,8 +724,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -790,30 +1041,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -833,52 +1087,55 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -898,57 +1155,60 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3.5</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>50</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>35</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>31</v>
@@ -960,60 +1220,63 @@
         <v>72</v>
       </c>
       <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
         <v>42</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>45</v>
       </c>
-      <c r="R3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" t="s">
-        <v>134</v>
-      </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="U3" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="V3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>29</v>
@@ -1025,60 +1288,63 @@
         <v>77</v>
       </c>
       <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>150</v>
+      </c>
+      <c r="M4">
+        <v>120</v>
+      </c>
+      <c r="N4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>150</v>
-      </c>
-      <c r="L4">
-        <v>120</v>
-      </c>
-      <c r="M4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" t="s">
         <v>52</v>
       </c>
-      <c r="O4" t="s">
-        <v>94</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" t="s">
+        <v>130</v>
+      </c>
+      <c r="U4" t="s">
         <v>54</v>
       </c>
-      <c r="R4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" t="s">
-        <v>133</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>55</v>
       </c>
-      <c r="U4" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>61</v>
@@ -1090,55 +1356,58 @@
         <v>89</v>
       </c>
       <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" t="s">
         <v>58</v>
       </c>
-      <c r="O5" t="s">
-        <v>93</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>61</v>
       </c>
-      <c r="U5" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1155,60 +1424,63 @@
         <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>300</v>
       </c>
-      <c r="M6" t="s">
-        <v>51</v>
-      </c>
       <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="R6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="S6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="T6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="U6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="V6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -1220,55 +1492,58 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>24</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>120</v>
       </c>
-      <c r="M7" t="s">
-        <v>51</v>
-      </c>
       <c r="N7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="S7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="T7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="U7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="V7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1285,49 +1560,52 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
         <v>23</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
         <v>300</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>30</v>
       </c>
-      <c r="O8" t="s">
-        <v>94</v>
-      </c>
       <c r="P8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="S8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="U8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="V8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U8" s="2" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1344,55 +1622,58 @@
         <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
         <v>26</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>23</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>120</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>30</v>
       </c>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>60</v>
+      <c r="S9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1409,55 +1690,58 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>240</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>240</v>
-      </c>
-      <c r="M10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R10" s="2" t="s">
+      <c r="T10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1474,55 +1758,58 @@
         <v>61</v>
       </c>
       <c r="F11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" t="s">
         <v>90</v>
       </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>30</v>
-      </c>
-      <c r="M11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" t="s">
-        <v>91</v>
-      </c>
-      <c r="O11" t="s">
-        <v>92</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="V11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>100</v>
-      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1539,53 +1826,56 @@
         <v>63</v>
       </c>
       <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>180</v>
+      </c>
+      <c r="N12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="S12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>180</v>
-      </c>
-      <c r="M12" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" t="s">
-        <v>103</v>
-      </c>
-      <c r="O12" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1602,55 +1892,58 @@
         <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
         <v>29</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>24</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>120</v>
       </c>
-      <c r="M13" t="s">
-        <v>51</v>
-      </c>
       <c r="N13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>129</v>
+        <v>91</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1667,57 +1960,60 @@
         <v>66</v>
       </c>
       <c r="F14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>1.5</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>107</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14">
-        <v>1.5</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" t="s">
-        <v>94</v>
-      </c>
-      <c r="P14" t="s">
-        <v>110</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>112</v>
-      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>35</v>
@@ -1729,60 +2025,63 @@
         <v>85</v>
       </c>
       <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" t="s">
         <v>113</v>
       </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="R15" t="s">
         <v>114</v>
       </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15">
-        <v>0.5</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="S15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O15" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>117</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>118</v>
-      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -1794,60 +2093,63 @@
         <v>75</v>
       </c>
       <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>5.5</v>
+      </c>
+      <c r="M16">
+        <v>660</v>
+      </c>
+      <c r="N16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" t="s">
         <v>119</v>
       </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>5.5</v>
-      </c>
-      <c r="L16">
-        <v>660</v>
-      </c>
-      <c r="M16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>120</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>121</v>
+      <c r="R16" t="s">
+        <v>117</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>19</v>
@@ -1859,57 +2161,1264 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17" t="s">
         <v>123</v>
       </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>60</v>
-      </c>
-      <c r="M17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="S17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O17" t="s">
+      <c r="T17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>126</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>128</v>
-      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>1.62</v>
+      </c>
+      <c r="E18">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>240</v>
+      </c>
+      <c r="N18" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>133</v>
+      </c>
+      <c r="R18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S18" t="s">
+        <v>135</v>
+      </c>
+      <c r="T18" t="s">
+        <v>136</v>
+      </c>
+      <c r="U18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>1.6</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19">
+        <v>120</v>
+      </c>
+      <c r="N19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>139</v>
+      </c>
+      <c r="R19" t="s">
+        <v>140</v>
+      </c>
+      <c r="S19" t="s">
+        <v>141</v>
+      </c>
+      <c r="T19" t="s">
+        <v>142</v>
+      </c>
+      <c r="U19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>1.63</v>
+      </c>
+      <c r="E20">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20">
+        <v>1.5</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>180</v>
+      </c>
+      <c r="N20" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" t="s">
+        <v>44</v>
+      </c>
+      <c r="S20" t="s">
+        <v>145</v>
+      </c>
+      <c r="T20" t="s">
+        <v>146</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>1.65</v>
+      </c>
+      <c r="E21">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>200</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>147</v>
+      </c>
+      <c r="R21" t="s">
+        <v>148</v>
+      </c>
+      <c r="S21" t="s">
+        <v>87</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>1.92</v>
+      </c>
+      <c r="E22">
+        <v>82</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22">
+        <v>0.8</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>60</v>
+      </c>
+      <c r="N22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>151</v>
+      </c>
+      <c r="R22" t="s">
+        <v>152</v>
+      </c>
+      <c r="S22" t="s">
+        <v>153</v>
+      </c>
+      <c r="T22" t="s">
+        <v>154</v>
+      </c>
+      <c r="U22" t="s">
+        <v>155</v>
+      </c>
+      <c r="V22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>1.75</v>
+      </c>
+      <c r="E23">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23">
+        <v>1.5</v>
+      </c>
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23">
+        <v>30</v>
+      </c>
+      <c r="N23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" t="s">
+        <v>216</v>
+      </c>
+      <c r="P23" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>158</v>
+      </c>
+      <c r="R23" t="s">
+        <v>212</v>
+      </c>
+      <c r="S23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T23" t="s">
+        <v>59</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>1.71</v>
+      </c>
+      <c r="E24">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24">
+        <v>1.5</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>60</v>
+      </c>
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
+        <v>160</v>
+      </c>
+      <c r="P24" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>161</v>
+      </c>
+      <c r="R24" t="s">
+        <v>213</v>
+      </c>
+      <c r="S24" t="s">
+        <v>87</v>
+      </c>
+      <c r="T24" t="s">
+        <v>208</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>1.7</v>
+      </c>
+      <c r="E25">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>120</v>
+      </c>
+      <c r="N25" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>59</v>
+      </c>
+      <c r="R25" t="s">
+        <v>163</v>
+      </c>
+      <c r="S25" t="s">
+        <v>45</v>
+      </c>
+      <c r="T25" t="s">
+        <v>59</v>
+      </c>
+      <c r="U25" t="s">
+        <v>164</v>
+      </c>
+      <c r="V25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>1.8</v>
+      </c>
+      <c r="E26">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <v>0.66</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>60</v>
+      </c>
+      <c r="N26" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>165</v>
+      </c>
+      <c r="R26" t="s">
+        <v>166</v>
+      </c>
+      <c r="S26" t="s">
+        <v>167</v>
+      </c>
+      <c r="T26" t="s">
+        <v>209</v>
+      </c>
+      <c r="U26" t="s">
+        <v>168</v>
+      </c>
+      <c r="V26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>1.8</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+      <c r="F27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>120</v>
+      </c>
+      <c r="N27" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>170</v>
+      </c>
+      <c r="R27" t="s">
+        <v>171</v>
+      </c>
+      <c r="S27" t="s">
+        <v>172</v>
+      </c>
+      <c r="T27" t="s">
+        <v>210</v>
+      </c>
+      <c r="U27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>1.59</v>
+      </c>
+      <c r="E28">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <v>3.5</v>
+      </c>
+      <c r="M28">
+        <v>30</v>
+      </c>
+      <c r="N28" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" t="s">
+        <v>174</v>
+      </c>
+      <c r="P28" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>175</v>
+      </c>
+      <c r="R28" t="s">
+        <v>214</v>
+      </c>
+      <c r="S28" t="s">
+        <v>72</v>
+      </c>
+      <c r="T28" t="s">
+        <v>59</v>
+      </c>
+      <c r="U28" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>1.8</v>
+      </c>
+      <c r="E29">
+        <v>70</v>
+      </c>
+      <c r="F29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" t="s">
+        <v>200</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29">
+        <v>1.5</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>120</v>
+      </c>
+      <c r="N29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>176</v>
+      </c>
+      <c r="R29" t="s">
+        <v>85</v>
+      </c>
+      <c r="S29" t="s">
+        <v>45</v>
+      </c>
+      <c r="T29" t="s">
+        <v>59</v>
+      </c>
+      <c r="U29" t="s">
+        <v>211</v>
+      </c>
+      <c r="V29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>1.73</v>
+      </c>
+      <c r="E30">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30">
+        <v>0.34</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>360</v>
+      </c>
+      <c r="N30" t="s">
+        <v>50</v>
+      </c>
+      <c r="O30" t="s">
+        <v>112</v>
+      </c>
+      <c r="P30" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>177</v>
+      </c>
+      <c r="R30" t="s">
+        <v>215</v>
+      </c>
+      <c r="S30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U30" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>1.65</v>
+      </c>
+      <c r="E31">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>120</v>
+      </c>
+      <c r="N31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" t="s">
+        <v>179</v>
+      </c>
+      <c r="P31" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>180</v>
+      </c>
+      <c r="R31" t="s">
+        <v>181</v>
+      </c>
+      <c r="S31" t="s">
+        <v>79</v>
+      </c>
+      <c r="T31" t="s">
+        <v>59</v>
+      </c>
+      <c r="U31" t="s">
+        <v>59</v>
+      </c>
+      <c r="V31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>1.85</v>
+      </c>
+      <c r="E32">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>60</v>
+      </c>
+      <c r="N32" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P32" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>183</v>
+      </c>
+      <c r="R32" t="s">
+        <v>184</v>
+      </c>
+      <c r="S32" t="s">
+        <v>87</v>
+      </c>
+      <c r="T32" t="s">
+        <v>59</v>
+      </c>
+      <c r="U32" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>1.77</v>
+      </c>
+      <c r="E33">
+        <v>92</v>
+      </c>
+      <c r="F33" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s">
+        <v>186</v>
+      </c>
+      <c r="J33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33">
+        <v>2.5</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>240</v>
+      </c>
+      <c r="N33" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>187</v>
+      </c>
+      <c r="R33" t="s">
+        <v>188</v>
+      </c>
+      <c r="S33" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" t="s">
+        <v>189</v>
+      </c>
+      <c r="U33" t="s">
+        <v>108</v>
+      </c>
+      <c r="V33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>51</v>
+      </c>
+      <c r="D34">
+        <v>1.7</v>
+      </c>
+      <c r="E34">
+        <v>70</v>
+      </c>
+      <c r="F34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" t="s">
+        <v>200</v>
+      </c>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>6</v>
+      </c>
+      <c r="M34">
+        <v>60</v>
+      </c>
+      <c r="N34" t="s">
+        <v>41</v>
+      </c>
+      <c r="O34" t="s">
+        <v>191</v>
+      </c>
+      <c r="P34" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>192</v>
+      </c>
+      <c r="R34" t="s">
+        <v>59</v>
+      </c>
+      <c r="S34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T34" t="s">
+        <v>59</v>
+      </c>
+      <c r="U34" t="s">
+        <v>59</v>
+      </c>
+      <c r="V34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>1.68</v>
+      </c>
+      <c r="E35">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35">
+        <v>0.75</v>
+      </c>
+      <c r="L35">
+        <v>14</v>
+      </c>
+      <c r="M35">
+        <v>60</v>
+      </c>
+      <c r="N35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>192</v>
+      </c>
+      <c r="R35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S35" t="s">
+        <v>72</v>
+      </c>
+      <c r="T35" t="s">
+        <v>205</v>
+      </c>
+      <c r="U35" t="s">
+        <v>80</v>
+      </c>
+      <c r="V35" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/2017/dados_questionario.xlsx
+++ b/2017/dados_questionario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Dropbox\Curso de verao 2017\curso-stat.github.io\2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Dropbox\Curso de Verão\curso-stat.github.io\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="229">
   <si>
     <t>aluno</t>
   </si>
@@ -681,6 +681,36 @@
   </si>
   <si>
     <t>Fluminense</t>
+  </si>
+  <si>
+    <t>Ellen White</t>
+  </si>
+  <si>
+    <t>Bíblia</t>
+  </si>
+  <si>
+    <t>Amazing grace</t>
+  </si>
+  <si>
+    <t>The sound of music</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Jorge Amado</t>
+  </si>
+  <si>
+    <t>Ensaio sobre a cegueira</t>
+  </si>
+  <si>
+    <t>Luiza</t>
+  </si>
+  <si>
+    <t>Show de Truman</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3421,6 +3451,139 @@
         <v>206</v>
       </c>
     </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>39</v>
+      </c>
+      <c r="D36">
+        <v>1.72</v>
+      </c>
+      <c r="E36">
+        <v>73</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>120</v>
+      </c>
+      <c r="N36" t="s">
+        <v>50</v>
+      </c>
+      <c r="O36" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>219</v>
+      </c>
+      <c r="R36" t="s">
+        <v>220</v>
+      </c>
+      <c r="S36" t="s">
+        <v>87</v>
+      </c>
+      <c r="T36" t="s">
+        <v>221</v>
+      </c>
+      <c r="U36" t="s">
+        <v>59</v>
+      </c>
+      <c r="V36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>1.65</v>
+      </c>
+      <c r="E37">
+        <v>55</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s">
+        <v>223</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37">
+        <v>0.5</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>180</v>
+      </c>
+      <c r="N37" t="s">
+        <v>50</v>
+      </c>
+      <c r="O37" t="s">
+        <v>160</v>
+      </c>
+      <c r="P37" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>225</v>
+      </c>
+      <c r="R37" t="s">
+        <v>226</v>
+      </c>
+      <c r="S37" t="s">
+        <v>87</v>
+      </c>
+      <c r="T37" t="s">
+        <v>227</v>
+      </c>
+      <c r="U37" t="s">
+        <v>211</v>
+      </c>
+      <c r="V37" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
